--- a/results/pvalue_OFFSIDES_rare_pathway_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_pathway_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.754</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.335</t>
+          <t>12.431</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.178</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>13.268</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.668</t>
+          <t>9.891</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>4.169</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
